--- a/songs.xlsx
+++ b/songs.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B164"/>
+  <dimension ref="A1:B167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS THE COMPLETE BEST OF azuma</t>
+          <t>MIKUNOYOASOBI</t>
         </is>
       </c>
     </row>
@@ -454,7 +454,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>No title+</t>
+          <t>EXIT TUNES PRESENTS THE COMPLETE BEST OF azuma</t>
         </is>
       </c>
     </row>
@@ -464,7 +464,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>初音ミクの消失</t>
+          <t>No title+</t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nyan Cat</t>
+          <t>初音ミクの消失</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GHOST</t>
+          <t>Nyan Cat</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MANNEQUIN</t>
+          <t>GHOST</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MANNEQUIN [Bonus Disc]</t>
+          <t>MANNEQUIN</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VOCALOID COLLECTION 2008～2012 [Disc 1]</t>
+          <t>MANNEQUIN [Bonus Disc]</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>アンデッドアリス</t>
+          <t>VOCALOID COLLECTION 2008～2012 [Disc 1]</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>アンドロイドガール</t>
+          <t>アンデッドアリス</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>アンドロイドガール [Bonus Disc]</t>
+          <t>アンドロイドガール</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>相愛性理論</t>
+          <t>アンドロイドガール [Bonus Disc]</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS THE BEST OF</t>
+          <t>相愛性理論</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Relations</t>
+          <t>EXIT TUNES PRESENTS THE BEST OF</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ロストテクノロジー</t>
+          <t>Relations</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>doriko BEST 2008-2016 [Disc 1]</t>
+          <t>ロストテクノロジー</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>doriko BEST 2008-2016 [Disc 2]</t>
+          <t>doriko BEST 2008-2016 [Disc 1]</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>unformed Feat. 初音ミク</t>
+          <t>doriko BEST 2008-2016 [Disc 2]</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ロミオとシンデレラ</t>
+          <t>unformed Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HATSUNE MIKU ORCHESTRA</t>
+          <t>ロミオとシンデレラ</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>増殖気味 X≒MULTIPLIES</t>
+          <t>HATSUNE MIKU ORCHESTRA</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PANDORA VOXX complete [Disc 1]</t>
+          <t>増殖気味 X≒MULTIPLIES</t>
         </is>
       </c>
     </row>
@@ -664,7 +664,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PANDORA VOXX complete [Disc 2]</t>
+          <t>PANDORA VOXX complete [Disc 1]</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>セツナコード Feat. GUMI, 初音ミク</t>
+          <t>PANDORA VOXX complete [Disc 2]</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DECORATOR EP Feat. 初音ミク</t>
+          <t>セツナコード Feat. GUMI, 初音ミク</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Re-Dial</t>
+          <t>DECORATOR EP Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Re-MIKUS Feat. 初音ミク</t>
+          <t>Re-Dial</t>
         </is>
       </c>
     </row>
@@ -714,7 +714,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Re-package Feat. 初音ミク</t>
+          <t>Re-MIKUS Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tell Your World EP</t>
+          <t>Re-package Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>lol project 051-TRANSPIRE</t>
+          <t>Tell Your World EP</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>lol project 052-HISTORIA</t>
+          <t>lol project 051-TRANSPIRE</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>セカイカタログ</t>
+          <t>lol project 052-HISTORIA</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>magnet -favorites plus-</t>
+          <t>Miku Expo 10th Anniversary E.P</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Heartsnative</t>
+          <t>セカイカタログ</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>悪ノ王国 ～Evils Kingdom～</t>
+          <t>magnet -favorites plus-</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>from Neverland ～Best of Nem～</t>
+          <t>Heartsnative</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NX STARS 02</t>
+          <t>悪ノ王国 ～Evils Kingdom～</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Prhythmatic6</t>
+          <t>from Neverland ～Best of Nem～</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Attractive Museum</t>
+          <t>NX STARS 02</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Cinnamon Philosophy</t>
+          <t>Prhythmatic6</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>OSTERさんのベスト</t>
+          <t>Attractive Museum</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>みくのかんづめ</t>
+          <t>Cinnamon Philosophy</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS THE BEST OF otetsu</t>
+          <t>OSTERさんのベスト</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>はうす!</t>
+          <t>みくのかんづめ</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>光芒パラノイア</t>
+          <t>EXIT TUNES PRESENTS THE BEST OF otetsu</t>
         </is>
       </c>
     </row>
@@ -894,7 +894,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>VOCALO EDM SESSIONS</t>
+          <t>はうす!</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>fioritura</t>
+          <t>光芒パラノイア</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>積乱雲グラフィティ - Fallin' Fallin' Fallin'</t>
+          <t>VOCALO EDM SESSIONS</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>sasakure.UK - プロトタイプ ナナクジャク</t>
+          <t>fioritura</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Rock Mode</t>
+          <t>積乱雲グラフィティ - Fallin' Fallin' Fallin'</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Sweet Dead Noise</t>
+          <t>sasakure.UK - プロトタイプ ナナクジャク</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ボカロEDM4</t>
+          <t>Rock Mode</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Worthless</t>
+          <t>Sweet Dead Noise</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>supercell Feat. 初音ミク</t>
+          <t>ボカロEDM4</t>
         </is>
       </c>
     </row>
@@ -984,7 +984,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>D-Frag D-13 'Sounders-Stagers'</t>
+          <t>Worthless</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0401 - The Best Days of 重音テト</t>
+          <t>supercell Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Digital Trax presents VOCALO★POPS BEST Feat. 初音ミク</t>
+          <t>D-Frag D-13 'Sounders-Stagers'</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS STARDOM 2</t>
+          <t>0401 - The Best Days of 重音テト</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS STARDOM 3</t>
+          <t>Digital Trax presents VOCALO★POPS BEST Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS Supernova</t>
+          <t>EXIT TUNES PRESENTS STARDOM 2</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS Supernova 5</t>
+          <t>EXIT TUNES PRESENTS STARDOM 3</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS Supernova 6</t>
+          <t>EXIT TUNES PRESENTS Supernova</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS Vocaloanthems Feat. 初音ミク</t>
+          <t>EXIT TUNES PRESENTS Supernova 5</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS Vocalocluster Feat. 初音ミク</t>
+          <t>EXIT TUNES PRESENTS Supernova 6</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS Vocaloconnection Feat. 初音ミク</t>
+          <t>EXIT TUNES PRESENTS Vocaloanthems Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS Vocalodelight Feat. 初音ミク</t>
+          <t>EXIT TUNES PRESENTS Vocalocluster Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS Vocalodream Feat. 初音ミク</t>
+          <t>EXIT TUNES PRESENTS Vocaloconnection Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS VOCALOFANTASY Feat. 初音ミク</t>
+          <t>EXIT TUNES PRESENTS Vocalodelight Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS Vocalofuture Feat. 初音ミク</t>
+          <t>EXIT TUNES PRESENTS Vocalodream Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS Vocalogemini Feat. 鏡音リン・レン</t>
+          <t>EXIT TUNES PRESENTS VOCALOFANTASY Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS Vocalogenesis Feat. 初音ミク</t>
+          <t>EXIT TUNES PRESENTS Vocalofuture Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS Vocalolegend Feat. 初音ミク</t>
+          <t>EXIT TUNES PRESENTS Vocalogemini Feat. 鏡音リン・レン</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS Vocalonation Feat. 初音ミク</t>
+          <t>EXIT TUNES PRESENTS Vocalogenesis Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS Vocalonexus Feat. 初音ミク</t>
+          <t>EXIT TUNES PRESENTS Vocalolegend Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS Vocalosensation Feat. 初音ミク</t>
+          <t>EXIT TUNES PRESENTS Vocalonation Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS Vocalospace Feat. 初音ミク</t>
+          <t>EXIT TUNES PRESENTS Vocalonexus Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS Vocalostar Feat. 初音ミク</t>
+          <t>EXIT TUNES PRESENTS Vocalosensation Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS Vocarhythm Feat. 初音ミク</t>
+          <t>EXIT TUNES PRESENTS Vocalospace Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Re-Start [Disc 1]</t>
+          <t>EXIT TUNES PRESENTS Vocalostar Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Re-Start [Disc 2]</t>
+          <t>EXIT TUNES PRESENTS Vocarhythm Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SEB presents SUPER HATSUNE BEAT vol. 1</t>
+          <t>Re-Start [Disc 1]</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>THE VOCALOID produced by Yamaha</t>
+          <t>Re-Start [Disc 2]</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>V love 25 ～Fortune～</t>
+          <t>SEB presents SUPER HATSUNE BEAT vol. 1</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>V love 25 ～Hearts～</t>
+          <t>THE VOCALOID produced by Yamaha</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Voca Remixes</t>
+          <t>V love 25 ～Fortune～</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>VocaL@ntis ～初音ミクがランティスのネ申曲を歌ってみた～</t>
+          <t>V love 25 ～Hearts～</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>VOCALO DANCE Feat. 初音ミク</t>
+          <t>Voca Remixes</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>VOCALOID BEST from ニコニコ動画 (あお)</t>
+          <t>VocaL@ntis ～初音ミクがランティスのネ申曲を歌ってみた～</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>VOCALOID BEST from ニコニコ動画 (あか)</t>
+          <t>VOCALO DANCE Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Vocaloid Love Songs ～Girls Side～</t>
+          <t>VOCALOID BEST from ニコニコ動画 (あお)</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Vocaloid Season Collection ・-。SNOW SONGSﾟ-・</t>
+          <t>VOCALOID BEST from ニコニコ動画 (あか)</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>VOCALOID 超BEST -memories-</t>
+          <t>Vocaloid Love Songs ～Girls Side～</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>VOCALOUD 00</t>
+          <t>Vocaloid Season Collection ・-。SNOW SONGSﾟ-・</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>VOCAROCK collection 3 Feat. 初音ミク</t>
+          <t>VOCALOID 超BEST -memories-</t>
         </is>
       </c>
     </row>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>VOCAROCK collection 4 Feat. 初音ミク</t>
+          <t>VOCALOUD 00</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Weekender Girl - fake doll</t>
+          <t>VOCAROCK collection 3 Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>White Luminescence Feat. 初音ミク</t>
+          <t>VOCAROCK collection 4 Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>こっち向いて Baby - Yellow</t>
+          <t>Weekender Girl - fake doll</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ぼーかろいど みんなのうた</t>
+          <t>White Luminescence Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ボカロ超ミックス39 feat. 初音ミク</t>
+          <t>こっち向いて Baby - Yellow</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>マジカルミライ2015 OFFICIAL ALBUM</t>
+          <t>ぼーかろいど みんなのうた</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>マジカルミライ2017 OFFICIAL ALBUM</t>
+          <t>ボカロ超ミックス39 feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ミク★パンク 80'S オン キャプテンレコード</t>
+          <t>マジカルミライ2015 OFFICIAL ALBUM</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>上書きスクールライフ</t>
+          <t>マジカルミライ2017 OFFICIAL ALBUM</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>初音ミク -Project DIVA Arcade- Original Song Collection</t>
+          <t>ミク★パンク 80'S オン キャプテンレコード</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>初音ミク -Project DIVA Arcade- Original Song Collection Vol. 2</t>
+          <t>上書きスクールライフ</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>初音ミク -Project DIVA Arcade- Original Song Collection Vol. 3</t>
+          <t>初音ミク -Project DIVA Arcade- Original Song Collection</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>初音ミク -Project DIVA F- Complete Collection [Disc 1]</t>
+          <t>初音ミク -Project DIVA Arcade- Original Song Collection Vol. 2</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>初音ミク -Project DIVA F- Complete Collection [Disc 2]</t>
+          <t>初音ミク -Project DIVA Arcade- Original Song Collection Vol. 3</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>初音ミク -Project DIVA- 2nd NONSTOP MIX COLLECTION</t>
+          <t>初音ミク -Project DIVA F- Complete Collection [Disc 1]</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>初音ミク -Project DIVA- extend Complete Collection [Disc 1]</t>
+          <t>初音ミク -Project DIVA F- Complete Collection [Disc 2]</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>初音ミク -Project DIVA- extend Complete Collection [Disc 2]</t>
+          <t>初音ミク -Project DIVA- 2nd NONSTOP MIX COLLECTION</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>初音ミク -Project DIVA- Original Song Collection</t>
+          <t>初音ミク -Project DIVA- extend Complete Collection [Disc 1]</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>初音ミク 5th バースデーベスト ～impacts～</t>
+          <t>初音ミク -Project DIVA- extend Complete Collection [Disc 2]</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>初音ミク 5th バースデーベスト ～memories～</t>
+          <t>初音ミク -Project DIVA- Original Song Collection</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>初音ミク Thank you 1826 Days [Disc 1]</t>
+          <t>初音ミク 5th バースデーベスト ～impacts～</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>初音ミク Thank you 1826 Days [Disc 2]</t>
+          <t>初音ミク 5th バースデーベスト ～memories～</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>初音ミク ベスト '07-'09 IMPACTS</t>
+          <t>初音ミク Thank you 1826 Days [Disc 1]</t>
         </is>
       </c>
     </row>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>初音ミク ベスト '07-'09 MEMORIES</t>
+          <t>初音ミク Thank you 1826 Days [Disc 2]</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>初音ミク マジカルミライ 2023 OFFICIAL ALBUM</t>
+          <t>初音ミク ベスト '07-'09 IMPACTS</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>初音ミク ライブパーティー 2011 LIVE CD [Disc 1]</t>
+          <t>初音ミク ベスト '07-'09 MEMORIES</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>初音ミク ライブパーティー 2011 LIVE CD [Disc 2]</t>
+          <t>初音ミク マジカルミライ 2023 OFFICIAL ALBUM</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>初音ミク ライブパーティー 2011 LIVE CD [Disc 3]</t>
+          <t>初音ミク ライブパーティー 2011 LIVE CD [Disc 1]</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>初音ミク ライブパーティー 2011 LIVE CD [Disc 4]</t>
+          <t>初音ミク ライブパーティー 2011 LIVE CD [Disc 2]</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>初音ミク 超ベスト-impacts-</t>
+          <t>初音ミク ライブパーティー 2011 LIVE CD [Disc 3]</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>天響ノ和樂</t>
+          <t>初音ミク ライブパーティー 2011 LIVE CD [Disc 4]</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>花楽里漫葉集 Feat. 初音ミク</t>
+          <t>初音ミク 超ベスト-impacts-</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PASSING DAYS</t>
+          <t>初音ミク「マジカルミライ 2024」OFFICIAL ALBUM</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>桜色D-i-s-k</t>
+          <t>天響ノ和樂</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>みんな幸せにな～れ! Feat. 初音ミク, MAYU, 結月ゆかり</t>
+          <t>花楽里漫葉集 Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>人畜無害</t>
+          <t>PASSING DAYS</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>EndlessroLL</t>
+          <t>桜色D-i-s-k</t>
         </is>
       </c>
     </row>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>僕は初音ミクとキスをした Feat. 初音ミク</t>
+          <t>みんな幸せにな～れ! Feat. 初音ミク, MAYU, 結月ゆかり</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>世迷言ユニバース</t>
+          <t>人畜無害</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>アゴ ア ゴー ゴー ゴー</t>
+          <t>EndlessroLL</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Miku-Ro Adventure!</t>
+          <t>僕は初音ミクとキスをした Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>5150</t>
+          <t>世迷言ユニバース</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS THE VERY BEST OF デッドボールP loves 初音ミク</t>
+          <t>アゴ ア ゴー ゴー ゴー</t>
         </is>
       </c>
     </row>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>股関節脱臼 loves 初音ミク</t>
+          <t>Miku-Ro Adventure!</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>トラボティック・シンフォニー Feat. 初音ミク, 鏡音リン, 鏡音レン, 巡音ルカ</t>
+          <t>5150</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ナユタン星からの物体X (remake)</t>
+          <t>EXIT TUNES PRESENTS THE VERY BEST OF デッドボールP loves 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ナユタン星からの物体Y</t>
+          <t>股関節脱臼 loves 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ナユタン星からの物体Z</t>
+          <t>トラボティック・シンフォニー Feat. 初音ミク, 鏡音リン, 鏡音レン, 巡音ルカ</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ナユタン星からの物体Z [Bonus Disc]</t>
+          <t>ナユタン星からの物体X (remake)</t>
         </is>
       </c>
     </row>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Obscure Questions</t>
+          <t>ナユタン星からの物体Y</t>
         </is>
       </c>
     </row>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS ザ! コンプリートベスト OF ラマーズP</t>
+          <t>ナユタン星からの物体Z</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>HIDEOUT</t>
+          <t>ナユタン星からの物体Z [Bonus Disc]</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ViViD WAVE</t>
+          <t>Obscure Questions</t>
         </is>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>HATSUNE MIKU Digital Stars 2020 Compilation</t>
+          <t>EXIT TUNES PRESENTS ザ! コンプリートベスト OF ラマーズP</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Winterland's Anthology feat. 初音ミク</t>
+          <t>HIDEOUT</t>
         </is>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>マジカルミライ2018 OFFICIAL ALBUM</t>
+          <t>ViViD WAVE</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>初音ミク マジカルミライ 2020 OFFICIAL ALBUM</t>
+          <t>HATSUNE MIKU Digital Stars 2020 Compilation</t>
         </is>
       </c>
     </row>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>初音ミク マジカルミライ 2021 OFFICIAL ALBUM</t>
+          <t>Winterland's Anthology feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>イニシエーション Feat. 初音ミク</t>
+          <t>マジカルミライ2018 OFFICIAL ALBUM</t>
         </is>
       </c>
     </row>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>RAINBOW SNOW ～オーロラにえがいたLove Letter～</t>
+          <t>初音ミク マジカルミライ 2020 OFFICIAL ALBUM</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>End of the World Feat. 初音ミク</t>
+          <t>初音ミク マジカルミライ 2021 OFFICIAL ALBUM</t>
         </is>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Fictional World</t>
+          <t>イニシエーション Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Glorious World</t>
+          <t>RAINBOW SNOW ～オーロラにえがいたLove Letter～</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>みんなみくみくにしてあげる♪ ～Heartsnative2～</t>
+          <t>End of the World Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -2033,6 +2033,36 @@
         <v>163</v>
       </c>
       <c r="B164" t="inlineStr">
+        <is>
+          <t>Fictional World</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Glorious World</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>みんなみくみくにしてあげる♪ ～Heartsnative2～</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
         <is>
           <t>5th ANNIVERSARY BEST Feat. 初音ミク</t>
         </is>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B167"/>
+  <dimension ref="A1:B175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>初音ミク Thank you 1826 Days [Disc 1]</t>
+          <t>初音ミク Project mirai こんぷり～と [Disc 1]</t>
         </is>
       </c>
     </row>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>初音ミク Thank you 1826 Days [Disc 2]</t>
+          <t>初音ミク Project mirai こんぷり～と [Disc 2]</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>初音ミク ベスト '07-'09 IMPACTS</t>
+          <t>初音ミク Project mirai こんぷり～と [Disc 3]</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>初音ミク ベスト '07-'09 MEMORIES</t>
+          <t>初音ミク Project mirai こんぷり～と [Disc 4]</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>初音ミク マジカルミライ 2023 OFFICIAL ALBUM</t>
+          <t>初音ミク Project mirai こんぷり～と [Disc 5]</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>初音ミク ライブパーティー 2011 LIVE CD [Disc 1]</t>
+          <t>初音ミク Thank you 1826 Days [Disc 1]</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>初音ミク ライブパーティー 2011 LIVE CD [Disc 2]</t>
+          <t>初音ミク Thank you 1826 Days [Disc 2]</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>初音ミク ライブパーティー 2011 LIVE CD [Disc 3]</t>
+          <t>初音ミク ベスト '07-'09 IMPACTS</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>初音ミク ライブパーティー 2011 LIVE CD [Disc 4]</t>
+          <t>初音ミク ベスト '07-'09 MEMORIES</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>初音ミク 超ベスト-impacts-</t>
+          <t>初音ミク マジカルミライ 2023 OFFICIAL ALBUM</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>初音ミク「マジカルミライ 2024」OFFICIAL ALBUM</t>
+          <t>初音ミク ライブパーティー 2011 LIVE CD [Disc 1]</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>天響ノ和樂</t>
+          <t>初音ミク ライブパーティー 2011 LIVE CD [Disc 2]</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>花楽里漫葉集 Feat. 初音ミク</t>
+          <t>初音ミク ライブパーティー 2011 LIVE CD [Disc 3]</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PASSING DAYS</t>
+          <t>初音ミク ライブパーティー 2011 LIVE CD [Disc 4]</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>桜色D-i-s-k</t>
+          <t>初音ミク 超ベスト-impacts-</t>
         </is>
       </c>
     </row>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>みんな幸せにな～れ! Feat. 初音ミク, MAYU, 結月ゆかり</t>
+          <t>初音ミク「マジカルミライ 2024」OFFICIAL ALBUM</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>人畜無害</t>
+          <t>天響ノ和樂</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>EndlessroLL</t>
+          <t>妖艶和奏絵巻 Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>僕は初音ミクとキスをした Feat. 初音ミク</t>
+          <t>花楽里漫葉集 Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>世迷言ユニバース</t>
+          <t>PASSING DAYS</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>アゴ ア ゴー ゴー ゴー</t>
+          <t>桜色D-i-s-k</t>
         </is>
       </c>
     </row>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Miku-Ro Adventure!</t>
+          <t>みんな幸せにな～れ! Feat. 初音ミク, MAYU, 結月ゆかり</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>5150</t>
+          <t>人畜無害</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS THE VERY BEST OF デッドボールP loves 初音ミク</t>
+          <t>EndlessroLL</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>股関節脱臼 loves 初音ミク</t>
+          <t>僕は初音ミクとキスをした Feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>トラボティック・シンフォニー Feat. 初音ミク, 鏡音リン, 鏡音レン, 巡音ルカ</t>
+          <t>世迷言ユニバース</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ナユタン星からの物体X (remake)</t>
+          <t>アゴ ア ゴー ゴー ゴー</t>
         </is>
       </c>
     </row>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ナユタン星からの物体Y</t>
+          <t>Miku-Ro Adventure!</t>
         </is>
       </c>
     </row>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ナユタン星からの物体Z</t>
+          <t>5150</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ナユタン星からの物体Z [Bonus Disc]</t>
+          <t>EXIT TUNES PRESENTS THE VERY BEST OF デッドボールP loves 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Obscure Questions</t>
+          <t>股関節脱臼 loves 初音ミク</t>
         </is>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>EXIT TUNES PRESENTS ザ! コンプリートベスト OF ラマーズP</t>
+          <t>トラボティック・シンフォニー Feat. 初音ミク, 鏡音リン, 鏡音レン, 巡音ルカ</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>HIDEOUT</t>
+          <t>ナユタン星からの物体X (remake)</t>
         </is>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ViViD WAVE</t>
+          <t>ナユタン星からの物体Y</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>HATSUNE MIKU Digital Stars 2020 Compilation</t>
+          <t>ナユタン星からの物体Z</t>
         </is>
       </c>
     </row>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Winterland's Anthology feat. 初音ミク</t>
+          <t>ナユタン星からの物体Z [Bonus Disc]</t>
         </is>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>マジカルミライ2018 OFFICIAL ALBUM</t>
+          <t>Obscure Questions</t>
         </is>
       </c>
     </row>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>初音ミク マジカルミライ 2020 OFFICIAL ALBUM</t>
+          <t>EXIT TUNES PRESENTS ザ! コンプリートベスト OF ラマーズP</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>初音ミク マジカルミライ 2021 OFFICIAL ALBUM</t>
+          <t>HIDEOUT</t>
         </is>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>イニシエーション Feat. 初音ミク</t>
+          <t>ViViD WAVE</t>
         </is>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>RAINBOW SNOW ～オーロラにえがいたLove Letter～</t>
+          <t>HATSUNE MIKU Digital Stars 2020 Compilation</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>End of the World Feat. 初音ミク</t>
+          <t>Winterland's Anthology feat. 初音ミク</t>
         </is>
       </c>
     </row>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Fictional World</t>
+          <t>マジカルミライ 10th Anniversary OFFICIAL ALBUM [Disc 1]</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Glorious World</t>
+          <t>マジカルミライ 10th Anniversary OFFICIAL ALBUM [Disc 2]</t>
         </is>
       </c>
     </row>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>みんなみくみくにしてあげる♪ ～Heartsnative2～</t>
+          <t>マジカルミライ2018 OFFICIAL ALBUM</t>
         </is>
       </c>
     </row>
@@ -2063,6 +2063,86 @@
         <v>166</v>
       </c>
       <c r="B167" t="inlineStr">
+        <is>
+          <t>初音ミク マジカルミライ 2020 OFFICIAL ALBUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>初音ミク マジカルミライ 2021 OFFICIAL ALBUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>イニシエーション Feat. 初音ミク</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>RAINBOW SNOW ～オーロラにえがいたLove Letter～</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>End of the World Feat. 初音ミク</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Fictional World</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Glorious World</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>みんなみくみくにしてあげる♪ ～Heartsnative2～</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
         <is>
           <t>5th ANNIVERSARY BEST Feat. 初音ミク</t>
         </is>
